--- a/uploadfile.xlsx
+++ b/uploadfile.xlsx
@@ -20,22 +20,22 @@
     <t>Amount</t>
   </si>
   <si>
-    <t>301248191823</t>
+    <t>718465249600</t>
   </si>
   <si>
-    <t>884</t>
+    <t>810</t>
   </si>
   <si>
-    <t>182690825263</t>
+    <t>548811283760</t>
   </si>
   <si>
-    <t>414244205002</t>
+    <t>065597337545</t>
   </si>
   <si>
-    <t>234285777245</t>
+    <t>793967790989</t>
   </si>
   <si>
-    <t>112821239367</t>
+    <t>206464505189</t>
   </si>
 </sst>
 </file>

--- a/uploadfile.xlsx
+++ b/uploadfile.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="103">
   <si>
     <t>code</t>
   </si>
@@ -20,22 +20,307 @@
     <t>Amount</t>
   </si>
   <si>
-    <t>718465249600</t>
-  </si>
-  <si>
-    <t>810</t>
-  </si>
-  <si>
-    <t>548811283760</t>
-  </si>
-  <si>
-    <t>065597337545</t>
-  </si>
-  <si>
-    <t>793967790989</t>
-  </si>
-  <si>
-    <t>206464505189</t>
+    <t>014128284554</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>824433970843</t>
+  </si>
+  <si>
+    <t>000341976790</t>
+  </si>
+  <si>
+    <t>266458513556</t>
+  </si>
+  <si>
+    <t>592135659504</t>
+  </si>
+  <si>
+    <t>873026245994</t>
+  </si>
+  <si>
+    <t>545591768777</t>
+  </si>
+  <si>
+    <t>948625525036</t>
+  </si>
+  <si>
+    <t>863643424823</t>
+  </si>
+  <si>
+    <t>815335673992</t>
+  </si>
+  <si>
+    <t>478354958027</t>
+  </si>
+  <si>
+    <t>298497902026</t>
+  </si>
+  <si>
+    <t>401728362160</t>
+  </si>
+  <si>
+    <t>910554570982</t>
+  </si>
+  <si>
+    <t>455563106492</t>
+  </si>
+  <si>
+    <t>372288624522</t>
+  </si>
+  <si>
+    <t>154189981207</t>
+  </si>
+  <si>
+    <t>432762499436</t>
+  </si>
+  <si>
+    <t>246234991756</t>
+  </si>
+  <si>
+    <t>408543295503</t>
+  </si>
+  <si>
+    <t>043185803583</t>
+  </si>
+  <si>
+    <t>423437622025</t>
+  </si>
+  <si>
+    <t>308703176468</t>
+  </si>
+  <si>
+    <t>665695584381</t>
+  </si>
+  <si>
+    <t>012598231105</t>
+  </si>
+  <si>
+    <t>398723046619</t>
+  </si>
+  <si>
+    <t>529028019149</t>
+  </si>
+  <si>
+    <t>996895243072</t>
+  </si>
+  <si>
+    <t>898264641069</t>
+  </si>
+  <si>
+    <t>685233938038</t>
+  </si>
+  <si>
+    <t>781328883209</t>
+  </si>
+  <si>
+    <t>238292638089</t>
+  </si>
+  <si>
+    <t>725611640339</t>
+  </si>
+  <si>
+    <t>622297855546</t>
+  </si>
+  <si>
+    <t>477670006899</t>
+  </si>
+  <si>
+    <t>392946236219</t>
+  </si>
+  <si>
+    <t>193468994860</t>
+  </si>
+  <si>
+    <t>502826596597</t>
+  </si>
+  <si>
+    <t>562910851844</t>
+  </si>
+  <si>
+    <t>865146776235</t>
+  </si>
+  <si>
+    <t>106246986543</t>
+  </si>
+  <si>
+    <t>648987314444</t>
+  </si>
+  <si>
+    <t>538825102169</t>
+  </si>
+  <si>
+    <t>742078941589</t>
+  </si>
+  <si>
+    <t>880903791848</t>
+  </si>
+  <si>
+    <t>505385240922</t>
+  </si>
+  <si>
+    <t>021152652093</t>
+  </si>
+  <si>
+    <t>534683978471</t>
+  </si>
+  <si>
+    <t>824415374893</t>
+  </si>
+  <si>
+    <t>192704280819</t>
+  </si>
+  <si>
+    <t>105221004542</t>
+  </si>
+  <si>
+    <t>780355053195</t>
+  </si>
+  <si>
+    <t>067705130168</t>
+  </si>
+  <si>
+    <t>413305361410</t>
+  </si>
+  <si>
+    <t>196228863055</t>
+  </si>
+  <si>
+    <t>493157949949</t>
+  </si>
+  <si>
+    <t>719801900720</t>
+  </si>
+  <si>
+    <t>216682098770</t>
+  </si>
+  <si>
+    <t>263904219253</t>
+  </si>
+  <si>
+    <t>278781355224</t>
+  </si>
+  <si>
+    <t>457634573386</t>
+  </si>
+  <si>
+    <t>105012721037</t>
+  </si>
+  <si>
+    <t>310092277520</t>
+  </si>
+  <si>
+    <t>358383040549</t>
+  </si>
+  <si>
+    <t>631856132453</t>
+  </si>
+  <si>
+    <t>285256746775</t>
+  </si>
+  <si>
+    <t>461762716265</t>
+  </si>
+  <si>
+    <t>467814017344</t>
+  </si>
+  <si>
+    <t>530631084037</t>
+  </si>
+  <si>
+    <t>116733774763</t>
+  </si>
+  <si>
+    <t>844213669865</t>
+  </si>
+  <si>
+    <t>470753885790</t>
+  </si>
+  <si>
+    <t>056269611749</t>
+  </si>
+  <si>
+    <t>760869305374</t>
+  </si>
+  <si>
+    <t>048465628720</t>
+  </si>
+  <si>
+    <t>556561148061</t>
+  </si>
+  <si>
+    <t>369237307123</t>
+  </si>
+  <si>
+    <t>423528885360</t>
+  </si>
+  <si>
+    <t>774398993583</t>
+  </si>
+  <si>
+    <t>898782891280</t>
+  </si>
+  <si>
+    <t>485763519055</t>
+  </si>
+  <si>
+    <t>849572141279</t>
+  </si>
+  <si>
+    <t>534916400349</t>
+  </si>
+  <si>
+    <t>754478554136</t>
+  </si>
+  <si>
+    <t>460197880529</t>
+  </si>
+  <si>
+    <t>475547359690</t>
+  </si>
+  <si>
+    <t>284260303153</t>
+  </si>
+  <si>
+    <t>904440838171</t>
+  </si>
+  <si>
+    <t>305752852116</t>
+  </si>
+  <si>
+    <t>118084418763</t>
+  </si>
+  <si>
+    <t>195150546172</t>
+  </si>
+  <si>
+    <t>244792310873</t>
+  </si>
+  <si>
+    <t>760510604616</t>
+  </si>
+  <si>
+    <t>608221174004</t>
+  </si>
+  <si>
+    <t>077490645457</t>
+  </si>
+  <si>
+    <t>763156613105</t>
+  </si>
+  <si>
+    <t>547440999663</t>
+  </si>
+  <si>
+    <t>495668364920</t>
+  </si>
+  <si>
+    <t>701079789106</t>
+  </si>
+  <si>
+    <t>829427235612</t>
   </si>
 </sst>
 </file>
@@ -80,7 +365,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -134,6 +419,766 @@
         <v>3</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B52" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B53" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="B54" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="B55" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="B56" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B57" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="B58" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="B59" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="B60" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="B61" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="B62" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="B63" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="B64" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="B65" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="B66" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="B67" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="B68" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="B69" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="B70" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="B71" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B72" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="B73" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="B74" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="B75" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="B76" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="B77" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="B78" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="B79" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="B80" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="B81" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="B82" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B83" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="B84" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="B85" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="B86" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B87" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="B88" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B89" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B90" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B91" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B92" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="B93" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B94" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="B95" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="B96" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B97" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="B98" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B99" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="B100" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B101" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/uploadfile.xlsx
+++ b/uploadfile.xlsx
@@ -20,1507 +20,1507 @@
     <t>Amount</t>
   </si>
   <si>
-    <t>767882274452</t>
-  </si>
-  <si>
-    <t>772</t>
-  </si>
-  <si>
-    <t>164645402856</t>
-  </si>
-  <si>
-    <t>408150072800</t>
-  </si>
-  <si>
-    <t>834116013396</t>
-  </si>
-  <si>
-    <t>236258073655</t>
-  </si>
-  <si>
-    <t>235593572785</t>
-  </si>
-  <si>
-    <t>617228697638</t>
-  </si>
-  <si>
-    <t>932797222294</t>
-  </si>
-  <si>
-    <t>095887687909</t>
-  </si>
-  <si>
-    <t>585434477148</t>
-  </si>
-  <si>
-    <t>834963847714</t>
-  </si>
-  <si>
-    <t>756391799106</t>
-  </si>
-  <si>
-    <t>440616085088</t>
-  </si>
-  <si>
-    <t>281645270983</t>
-  </si>
-  <si>
-    <t>820554331777</t>
-  </si>
-  <si>
-    <t>173402983530</t>
-  </si>
-  <si>
-    <t>291331748122</t>
-  </si>
-  <si>
-    <t>582849657974</t>
-  </si>
-  <si>
-    <t>090168001567</t>
-  </si>
-  <si>
-    <t>886628004578</t>
-  </si>
-  <si>
-    <t>473145090452</t>
-  </si>
-  <si>
-    <t>143324945420</t>
-  </si>
-  <si>
-    <t>934426100849</t>
-  </si>
-  <si>
-    <t>655845346259</t>
-  </si>
-  <si>
-    <t>943550830137</t>
-  </si>
-  <si>
-    <t>247335144173</t>
-  </si>
-  <si>
-    <t>414032950821</t>
-  </si>
-  <si>
-    <t>803174828547</t>
-  </si>
-  <si>
-    <t>867443154701</t>
-  </si>
-  <si>
-    <t>253079518098</t>
-  </si>
-  <si>
-    <t>241082636462</t>
-  </si>
-  <si>
-    <t>346890977363</t>
-  </si>
-  <si>
-    <t>097516603790</t>
-  </si>
-  <si>
-    <t>913961925869</t>
-  </si>
-  <si>
-    <t>817327178101</t>
-  </si>
-  <si>
-    <t>066107823960</t>
-  </si>
-  <si>
-    <t>264732805149</t>
-  </si>
-  <si>
-    <t>939020582840</t>
-  </si>
-  <si>
-    <t>035286527035</t>
-  </si>
-  <si>
-    <t>870351563204</t>
-  </si>
-  <si>
-    <t>425107579488</t>
-  </si>
-  <si>
-    <t>255403805651</t>
-  </si>
-  <si>
-    <t>548385506292</t>
-  </si>
-  <si>
-    <t>978701414561</t>
-  </si>
-  <si>
-    <t>530160888474</t>
-  </si>
-  <si>
-    <t>923900133007</t>
-  </si>
-  <si>
-    <t>532930416107</t>
-  </si>
-  <si>
-    <t>805955749898</t>
-  </si>
-  <si>
-    <t>235887712568</t>
-  </si>
-  <si>
-    <t>112587965301</t>
-  </si>
-  <si>
-    <t>744091345017</t>
-  </si>
-  <si>
-    <t>327643673118</t>
-  </si>
-  <si>
-    <t>598450010180</t>
-  </si>
-  <si>
-    <t>882985960081</t>
-  </si>
-  <si>
-    <t>608650272458</t>
-  </si>
-  <si>
-    <t>237622917844</t>
-  </si>
-  <si>
-    <t>559335160985</t>
-  </si>
-  <si>
-    <t>550902972031</t>
-  </si>
-  <si>
-    <t>751122601458</t>
-  </si>
-  <si>
-    <t>342044762901</t>
-  </si>
-  <si>
-    <t>577612187019</t>
-  </si>
-  <si>
-    <t>848293688405</t>
-  </si>
-  <si>
-    <t>294485999449</t>
-  </si>
-  <si>
-    <t>479202371470</t>
-  </si>
-  <si>
-    <t>833230944515</t>
-  </si>
-  <si>
-    <t>547716236655</t>
-  </si>
-  <si>
-    <t>571622592425</t>
-  </si>
-  <si>
-    <t>277450435047</t>
-  </si>
-  <si>
-    <t>802577035139</t>
-  </si>
-  <si>
-    <t>238680163571</t>
-  </si>
-  <si>
-    <t>639380760744</t>
-  </si>
-  <si>
-    <t>672835679756</t>
-  </si>
-  <si>
-    <t>596573866758</t>
-  </si>
-  <si>
-    <t>354016510141</t>
-  </si>
-  <si>
-    <t>085474138478</t>
-  </si>
-  <si>
-    <t>503509565715</t>
-  </si>
-  <si>
-    <t>689373778473</t>
-  </si>
-  <si>
-    <t>664929648189</t>
-  </si>
-  <si>
-    <t>282712783757</t>
-  </si>
-  <si>
-    <t>642616561689</t>
-  </si>
-  <si>
-    <t>075677097104</t>
-  </si>
-  <si>
-    <t>049410206167</t>
-  </si>
-  <si>
-    <t>535942894245</t>
-  </si>
-  <si>
-    <t>509006611292</t>
-  </si>
-  <si>
-    <t>980717851295</t>
-  </si>
-  <si>
-    <t>466099793914</t>
-  </si>
-  <si>
-    <t>560820739446</t>
-  </si>
-  <si>
-    <t>558905138845</t>
-  </si>
-  <si>
-    <t>517054728973</t>
-  </si>
-  <si>
-    <t>603323482186</t>
-  </si>
-  <si>
-    <t>912327865819</t>
-  </si>
-  <si>
-    <t>046434990395</t>
-  </si>
-  <si>
-    <t>453528881091</t>
-  </si>
-  <si>
-    <t>704790935787</t>
-  </si>
-  <si>
-    <t>688406072043</t>
-  </si>
-  <si>
-    <t>216006751796</t>
-  </si>
-  <si>
-    <t>252965446905</t>
-  </si>
-  <si>
-    <t>898717540104</t>
-  </si>
-  <si>
-    <t>403047501720</t>
-  </si>
-  <si>
-    <t>782851131441</t>
-  </si>
-  <si>
-    <t>782835522345</t>
-  </si>
-  <si>
-    <t>574487905192</t>
-  </si>
-  <si>
-    <t>039740591083</t>
-  </si>
-  <si>
-    <t>331138568072</t>
-  </si>
-  <si>
-    <t>993499169486</t>
-  </si>
-  <si>
-    <t>674935217376</t>
-  </si>
-  <si>
-    <t>593186393880</t>
-  </si>
-  <si>
-    <t>668625315591</t>
-  </si>
-  <si>
-    <t>899091044580</t>
-  </si>
-  <si>
-    <t>671848888963</t>
-  </si>
-  <si>
-    <t>100055896347</t>
-  </si>
-  <si>
-    <t>885749379167</t>
-  </si>
-  <si>
-    <t>868932037086</t>
-  </si>
-  <si>
-    <t>058596815374</t>
-  </si>
-  <si>
-    <t>892415737964</t>
-  </si>
-  <si>
-    <t>591252975684</t>
-  </si>
-  <si>
-    <t>281065631141</t>
-  </si>
-  <si>
-    <t>780556634696</t>
-  </si>
-  <si>
-    <t>158882138042</t>
-  </si>
-  <si>
-    <t>500216025554</t>
-  </si>
-  <si>
-    <t>815573741984</t>
-  </si>
-  <si>
-    <t>208918345031</t>
-  </si>
-  <si>
-    <t>109492917069</t>
-  </si>
-  <si>
-    <t>884424707901</t>
-  </si>
-  <si>
-    <t>620934705591</t>
-  </si>
-  <si>
-    <t>166250509836</t>
-  </si>
-  <si>
-    <t>698360276471</t>
-  </si>
-  <si>
-    <t>100266278509</t>
-  </si>
-  <si>
-    <t>867926599257</t>
-  </si>
-  <si>
-    <t>325066974289</t>
-  </si>
-  <si>
-    <t>621845502161</t>
-  </si>
-  <si>
-    <t>090603019900</t>
-  </si>
-  <si>
-    <t>153988002185</t>
-  </si>
-  <si>
-    <t>122359227350</t>
-  </si>
-  <si>
-    <t>944346971505</t>
-  </si>
-  <si>
-    <t>490093023226</t>
-  </si>
-  <si>
-    <t>352920313401</t>
-  </si>
-  <si>
-    <t>417375617097</t>
-  </si>
-  <si>
-    <t>063502529435</t>
-  </si>
-  <si>
-    <t>958352503003</t>
-  </si>
-  <si>
-    <t>939174959749</t>
-  </si>
-  <si>
-    <t>267621947376</t>
-  </si>
-  <si>
-    <t>900089472984</t>
-  </si>
-  <si>
-    <t>595178202458</t>
-  </si>
-  <si>
-    <t>954022689371</t>
-  </si>
-  <si>
-    <t>370759966370</t>
-  </si>
-  <si>
-    <t>989986878113</t>
-  </si>
-  <si>
-    <t>916803030936</t>
-  </si>
-  <si>
-    <t>859693816800</t>
-  </si>
-  <si>
-    <t>810249783591</t>
-  </si>
-  <si>
-    <t>828730125866</t>
-  </si>
-  <si>
-    <t>855773866349</t>
-  </si>
-  <si>
-    <t>389965066475</t>
-  </si>
-  <si>
-    <t>527474522003</t>
-  </si>
-  <si>
-    <t>299364769491</t>
-  </si>
-  <si>
-    <t>071999351005</t>
-  </si>
-  <si>
-    <t>716377679781</t>
-  </si>
-  <si>
-    <t>318115398802</t>
-  </si>
-  <si>
-    <t>273806555452</t>
-  </si>
-  <si>
-    <t>709996619463</t>
-  </si>
-  <si>
-    <t>864762044096</t>
-  </si>
-  <si>
-    <t>105566345813</t>
-  </si>
-  <si>
-    <t>597993214679</t>
-  </si>
-  <si>
-    <t>206761522808</t>
-  </si>
-  <si>
-    <t>614277979440</t>
-  </si>
-  <si>
-    <t>061083255125</t>
-  </si>
-  <si>
-    <t>043588636695</t>
-  </si>
-  <si>
-    <t>104533320877</t>
-  </si>
-  <si>
-    <t>679971882148</t>
-  </si>
-  <si>
-    <t>681497948581</t>
-  </si>
-  <si>
-    <t>329313827504</t>
-  </si>
-  <si>
-    <t>604611757756</t>
-  </si>
-  <si>
-    <t>120903333648</t>
-  </si>
-  <si>
-    <t>814565823767</t>
-  </si>
-  <si>
-    <t>354177957804</t>
-  </si>
-  <si>
-    <t>582525226322</t>
-  </si>
-  <si>
-    <t>877973433433</t>
-  </si>
-  <si>
-    <t>668822561639</t>
-  </si>
-  <si>
-    <t>484068854247</t>
-  </si>
-  <si>
-    <t>858346691021</t>
-  </si>
-  <si>
-    <t>299795435963</t>
-  </si>
-  <si>
-    <t>386128499824</t>
-  </si>
-  <si>
-    <t>238574818967</t>
-  </si>
-  <si>
-    <t>359730383110</t>
-  </si>
-  <si>
-    <t>578148828616</t>
-  </si>
-  <si>
-    <t>407970061437</t>
-  </si>
-  <si>
-    <t>722708675945</t>
-  </si>
-  <si>
-    <t>515346313464</t>
-  </si>
-  <si>
-    <t>876721511991</t>
-  </si>
-  <si>
-    <t>909877171635</t>
-  </si>
-  <si>
-    <t>578775927781</t>
-  </si>
-  <si>
-    <t>327030545666</t>
-  </si>
-  <si>
-    <t>940377796018</t>
-  </si>
-  <si>
-    <t>226971294126</t>
-  </si>
-  <si>
-    <t>326628262863</t>
-  </si>
-  <si>
-    <t>060319124191</t>
-  </si>
-  <si>
-    <t>972977878154</t>
-  </si>
-  <si>
-    <t>899601711211</t>
-  </si>
-  <si>
-    <t>612878885664</t>
-  </si>
-  <si>
-    <t>734803715399</t>
-  </si>
-  <si>
-    <t>169213671998</t>
-  </si>
-  <si>
-    <t>136501993343</t>
-  </si>
-  <si>
-    <t>950206270726</t>
-  </si>
-  <si>
-    <t>222639987949</t>
-  </si>
-  <si>
-    <t>814243407300</t>
-  </si>
-  <si>
-    <t>171612689296</t>
-  </si>
-  <si>
-    <t>035420984700</t>
-  </si>
-  <si>
-    <t>643611798456</t>
-  </si>
-  <si>
-    <t>783661674098</t>
-  </si>
-  <si>
-    <t>833894186273</t>
-  </si>
-  <si>
-    <t>942188120575</t>
-  </si>
-  <si>
-    <t>910548321816</t>
-  </si>
-  <si>
-    <t>305634439981</t>
-  </si>
-  <si>
-    <t>480285453974</t>
-  </si>
-  <si>
-    <t>087918276900</t>
-  </si>
-  <si>
-    <t>295712378109</t>
-  </si>
-  <si>
-    <t>100654638952</t>
-  </si>
-  <si>
-    <t>222515184886</t>
-  </si>
-  <si>
-    <t>221470905830</t>
-  </si>
-  <si>
-    <t>762433811810</t>
-  </si>
-  <si>
-    <t>301293034632</t>
-  </si>
-  <si>
-    <t>991963071206</t>
-  </si>
-  <si>
-    <t>699301802051</t>
-  </si>
-  <si>
-    <t>307909555327</t>
-  </si>
-  <si>
-    <t>551914775719</t>
-  </si>
-  <si>
-    <t>219054310163</t>
-  </si>
-  <si>
-    <t>046099929028</t>
-  </si>
-  <si>
-    <t>130746151285</t>
-  </si>
-  <si>
-    <t>606242095125</t>
-  </si>
-  <si>
-    <t>628441487345</t>
-  </si>
-  <si>
-    <t>169158777431</t>
-  </si>
-  <si>
-    <t>998616297437</t>
-  </si>
-  <si>
-    <t>792940709676</t>
-  </si>
-  <si>
-    <t>708716504160</t>
-  </si>
-  <si>
-    <t>355454855662</t>
-  </si>
-  <si>
-    <t>744780195992</t>
-  </si>
-  <si>
-    <t>125857617927</t>
-  </si>
-  <si>
-    <t>412271133154</t>
-  </si>
-  <si>
-    <t>354335872412</t>
-  </si>
-  <si>
-    <t>046744527333</t>
-  </si>
-  <si>
-    <t>370129277746</t>
-  </si>
-  <si>
-    <t>669210921782</t>
-  </si>
-  <si>
-    <t>989676856883</t>
-  </si>
-  <si>
-    <t>601486119979</t>
-  </si>
-  <si>
-    <t>458277120561</t>
-  </si>
-  <si>
-    <t>947128110984</t>
-  </si>
-  <si>
-    <t>616359320242</t>
-  </si>
-  <si>
-    <t>134416394848</t>
-  </si>
-  <si>
-    <t>900115069228</t>
-  </si>
-  <si>
-    <t>867529979491</t>
-  </si>
-  <si>
-    <t>968113666639</t>
-  </si>
-  <si>
-    <t>048945255520</t>
-  </si>
-  <si>
-    <t>803502038297</t>
-  </si>
-  <si>
-    <t>045329782779</t>
-  </si>
-  <si>
-    <t>988557484058</t>
-  </si>
-  <si>
-    <t>003793852070</t>
-  </si>
-  <si>
-    <t>848826823250</t>
-  </si>
-  <si>
-    <t>772578252367</t>
-  </si>
-  <si>
-    <t>112664622406</t>
-  </si>
-  <si>
-    <t>984441354345</t>
-  </si>
-  <si>
-    <t>040750935075</t>
-  </si>
-  <si>
-    <t>809713206500</t>
-  </si>
-  <si>
-    <t>708757382001</t>
-  </si>
-  <si>
-    <t>343064455623</t>
-  </si>
-  <si>
-    <t>212577938864</t>
-  </si>
-  <si>
-    <t>310097231299</t>
-  </si>
-  <si>
-    <t>367125217533</t>
-  </si>
-  <si>
-    <t>036208501233</t>
-  </si>
-  <si>
-    <t>191156906995</t>
-  </si>
-  <si>
-    <t>397695589264</t>
-  </si>
-  <si>
-    <t>090169290190</t>
-  </si>
-  <si>
-    <t>158587452210</t>
-  </si>
-  <si>
-    <t>659764694689</t>
-  </si>
-  <si>
-    <t>704051259785</t>
-  </si>
-  <si>
-    <t>954721384505</t>
-  </si>
-  <si>
-    <t>355731458885</t>
-  </si>
-  <si>
-    <t>002447849400</t>
-  </si>
-  <si>
-    <t>057267686057</t>
-  </si>
-  <si>
-    <t>775718381687</t>
-  </si>
-  <si>
-    <t>568585468537</t>
-  </si>
-  <si>
-    <t>465381769263</t>
-  </si>
-  <si>
-    <t>463497144415</t>
-  </si>
-  <si>
-    <t>745680212594</t>
-  </si>
-  <si>
-    <t>319919552729</t>
-  </si>
-  <si>
-    <t>887337375619</t>
-  </si>
-  <si>
-    <t>245247626037</t>
-  </si>
-  <si>
-    <t>607955301734</t>
-  </si>
-  <si>
-    <t>585084721198</t>
-  </si>
-  <si>
-    <t>746044002517</t>
-  </si>
-  <si>
-    <t>241030254961</t>
-  </si>
-  <si>
-    <t>214307204917</t>
-  </si>
-  <si>
-    <t>359441347759</t>
-  </si>
-  <si>
-    <t>200466268813</t>
-  </si>
-  <si>
-    <t>484731083499</t>
-  </si>
-  <si>
-    <t>181952156817</t>
-  </si>
-  <si>
-    <t>035955543370</t>
-  </si>
-  <si>
-    <t>131723262848</t>
-  </si>
-  <si>
-    <t>093732785930</t>
-  </si>
-  <si>
-    <t>799631496549</t>
-  </si>
-  <si>
-    <t>455634669413</t>
-  </si>
-  <si>
-    <t>934801762173</t>
-  </si>
-  <si>
-    <t>036953671275</t>
-  </si>
-  <si>
-    <t>211939071981</t>
-  </si>
-  <si>
-    <t>964674647812</t>
-  </si>
-  <si>
-    <t>515892237119</t>
-  </si>
-  <si>
-    <t>379938373370</t>
-  </si>
-  <si>
-    <t>444665350117</t>
-  </si>
-  <si>
-    <t>692494166419</t>
-  </si>
-  <si>
-    <t>791055406577</t>
-  </si>
-  <si>
-    <t>496136175532</t>
-  </si>
-  <si>
-    <t>909368090306</t>
-  </si>
-  <si>
-    <t>833446631531</t>
-  </si>
-  <si>
-    <t>293022749588</t>
-  </si>
-  <si>
-    <t>669720825426</t>
-  </si>
-  <si>
-    <t>378724887928</t>
-  </si>
-  <si>
-    <t>970888313991</t>
-  </si>
-  <si>
-    <t>933150681607</t>
-  </si>
-  <si>
-    <t>508579339646</t>
-  </si>
-  <si>
-    <t>212319378752</t>
-  </si>
-  <si>
-    <t>698958473973</t>
-  </si>
-  <si>
-    <t>384913571628</t>
-  </si>
-  <si>
-    <t>447520106121</t>
-  </si>
-  <si>
-    <t>347809430425</t>
-  </si>
-  <si>
-    <t>396005077443</t>
-  </si>
-  <si>
-    <t>217730034367</t>
-  </si>
-  <si>
-    <t>457739776345</t>
-  </si>
-  <si>
-    <t>591737555532</t>
-  </si>
-  <si>
-    <t>372667834340</t>
-  </si>
-  <si>
-    <t>233112399103</t>
-  </si>
-  <si>
-    <t>549314839711</t>
-  </si>
-  <si>
-    <t>008691173624</t>
-  </si>
-  <si>
-    <t>409209037127</t>
-  </si>
-  <si>
-    <t>294611120927</t>
-  </si>
-  <si>
-    <t>043287559507</t>
-  </si>
-  <si>
-    <t>148382568525</t>
-  </si>
-  <si>
-    <t>815255155416</t>
-  </si>
-  <si>
-    <t>662978906774</t>
-  </si>
-  <si>
-    <t>840798517038</t>
-  </si>
-  <si>
-    <t>924417967282</t>
-  </si>
-  <si>
-    <t>366600934197</t>
-  </si>
-  <si>
-    <t>602226079869</t>
-  </si>
-  <si>
-    <t>068694052517</t>
-  </si>
-  <si>
-    <t>309345717224</t>
-  </si>
-  <si>
-    <t>577471473445</t>
-  </si>
-  <si>
-    <t>484356447701</t>
-  </si>
-  <si>
-    <t>429607199785</t>
-  </si>
-  <si>
-    <t>371135951001</t>
-  </si>
-  <si>
-    <t>815094404536</t>
-  </si>
-  <si>
-    <t>751988968518</t>
-  </si>
-  <si>
-    <t>858501548211</t>
-  </si>
-  <si>
-    <t>239327619532</t>
-  </si>
-  <si>
-    <t>545504113102</t>
-  </si>
-  <si>
-    <t>987613371661</t>
-  </si>
-  <si>
-    <t>273572814107</t>
-  </si>
-  <si>
-    <t>639756411214</t>
-  </si>
-  <si>
-    <t>431729752232</t>
-  </si>
-  <si>
-    <t>375750518957</t>
-  </si>
-  <si>
-    <t>202653130406</t>
-  </si>
-  <si>
-    <t>708607713788</t>
-  </si>
-  <si>
-    <t>791451306046</t>
-  </si>
-  <si>
-    <t>454775020009</t>
-  </si>
-  <si>
-    <t>358730330472</t>
-  </si>
-  <si>
-    <t>808869147354</t>
-  </si>
-  <si>
-    <t>235130374458</t>
-  </si>
-  <si>
-    <t>851057694890</t>
-  </si>
-  <si>
-    <t>418942392014</t>
-  </si>
-  <si>
-    <t>610107164908</t>
-  </si>
-  <si>
-    <t>989792779531</t>
-  </si>
-  <si>
-    <t>494806825873</t>
-  </si>
-  <si>
-    <t>086185584884</t>
-  </si>
-  <si>
-    <t>761641514614</t>
-  </si>
-  <si>
-    <t>081691825072</t>
-  </si>
-  <si>
-    <t>394089933280</t>
-  </si>
-  <si>
-    <t>872800908520</t>
-  </si>
-  <si>
-    <t>347463162738</t>
-  </si>
-  <si>
-    <t>139645906962</t>
-  </si>
-  <si>
-    <t>514705058672</t>
-  </si>
-  <si>
-    <t>886773853160</t>
-  </si>
-  <si>
-    <t>166334612639</t>
-  </si>
-  <si>
-    <t>013894724022</t>
-  </si>
-  <si>
-    <t>048366855115</t>
-  </si>
-  <si>
-    <t>943128851793</t>
-  </si>
-  <si>
-    <t>956380587469</t>
-  </si>
-  <si>
-    <t>085559606453</t>
-  </si>
-  <si>
-    <t>075686160137</t>
-  </si>
-  <si>
-    <t>286246039900</t>
-  </si>
-  <si>
-    <t>746020256814</t>
-  </si>
-  <si>
-    <t>419667471435</t>
-  </si>
-  <si>
-    <t>395817042518</t>
-  </si>
-  <si>
-    <t>034877992187</t>
-  </si>
-  <si>
-    <t>775586634114</t>
-  </si>
-  <si>
-    <t>215149591090</t>
-  </si>
-  <si>
-    <t>982547288809</t>
-  </si>
-  <si>
-    <t>325307662088</t>
-  </si>
-  <si>
-    <t>678307258150</t>
-  </si>
-  <si>
-    <t>621586584275</t>
-  </si>
-  <si>
-    <t>221612680369</t>
-  </si>
-  <si>
-    <t>424376151202</t>
-  </si>
-  <si>
-    <t>943835267772</t>
-  </si>
-  <si>
-    <t>963864908715</t>
-  </si>
-  <si>
-    <t>081680133555</t>
-  </si>
-  <si>
-    <t>962292963276</t>
-  </si>
-  <si>
-    <t>774802888991</t>
-  </si>
-  <si>
-    <t>905180127702</t>
-  </si>
-  <si>
-    <t>794338394296</t>
-  </si>
-  <si>
-    <t>512787047310</t>
-  </si>
-  <si>
-    <t>706624344670</t>
-  </si>
-  <si>
-    <t>731649442977</t>
-  </si>
-  <si>
-    <t>982538071709</t>
-  </si>
-  <si>
-    <t>070860675707</t>
-  </si>
-  <si>
-    <t>320449385997</t>
-  </si>
-  <si>
-    <t>715373009398</t>
-  </si>
-  <si>
-    <t>428170016568</t>
-  </si>
-  <si>
-    <t>833914252966</t>
-  </si>
-  <si>
-    <t>088227124037</t>
-  </si>
-  <si>
-    <t>250805547020</t>
-  </si>
-  <si>
-    <t>358899099929</t>
-  </si>
-  <si>
-    <t>408588660128</t>
-  </si>
-  <si>
-    <t>513942424627</t>
-  </si>
-  <si>
-    <t>829100041225</t>
-  </si>
-  <si>
-    <t>506598925974</t>
-  </si>
-  <si>
-    <t>054416802598</t>
-  </si>
-  <si>
-    <t>224176135310</t>
-  </si>
-  <si>
-    <t>709642415137</t>
-  </si>
-  <si>
-    <t>468136797849</t>
-  </si>
-  <si>
-    <t>344968116153</t>
-  </si>
-  <si>
-    <t>744574080473</t>
-  </si>
-  <si>
-    <t>944115539786</t>
-  </si>
-  <si>
-    <t>248744773744</t>
-  </si>
-  <si>
-    <t>935894966195</t>
-  </si>
-  <si>
-    <t>398635348574</t>
-  </si>
-  <si>
-    <t>674842639704</t>
-  </si>
-  <si>
-    <t>129963819791</t>
-  </si>
-  <si>
-    <t>736913290107</t>
-  </si>
-  <si>
-    <t>841898702185</t>
-  </si>
-  <si>
-    <t>276692370101</t>
-  </si>
-  <si>
-    <t>636437048808</t>
-  </si>
-  <si>
-    <t>006735784386</t>
-  </si>
-  <si>
-    <t>843793279364</t>
-  </si>
-  <si>
-    <t>046334727066</t>
-  </si>
-  <si>
-    <t>994166636432</t>
-  </si>
-  <si>
-    <t>285938537189</t>
-  </si>
-  <si>
-    <t>172354149269</t>
-  </si>
-  <si>
-    <t>773763822973</t>
-  </si>
-  <si>
-    <t>793503251355</t>
-  </si>
-  <si>
-    <t>917376971770</t>
-  </si>
-  <si>
-    <t>325688856223</t>
-  </si>
-  <si>
-    <t>574663645468</t>
-  </si>
-  <si>
-    <t>950953479248</t>
-  </si>
-  <si>
-    <t>290027320793</t>
-  </si>
-  <si>
-    <t>302797670660</t>
-  </si>
-  <si>
-    <t>383968543398</t>
-  </si>
-  <si>
-    <t>492874943048</t>
-  </si>
-  <si>
-    <t>499411363285</t>
-  </si>
-  <si>
-    <t>415536281820</t>
-  </si>
-  <si>
-    <t>757866795798</t>
-  </si>
-  <si>
-    <t>929011989986</t>
-  </si>
-  <si>
-    <t>599522300376</t>
-  </si>
-  <si>
-    <t>215715472838</t>
-  </si>
-  <si>
-    <t>188620939349</t>
-  </si>
-  <si>
-    <t>282756224305</t>
-  </si>
-  <si>
-    <t>941107080809</t>
-  </si>
-  <si>
-    <t>647060312203</t>
-  </si>
-  <si>
-    <t>987167593597</t>
-  </si>
-  <si>
-    <t>409624419631</t>
-  </si>
-  <si>
-    <t>074429477232</t>
-  </si>
-  <si>
-    <t>789602646344</t>
-  </si>
-  <si>
-    <t>851920037874</t>
-  </si>
-  <si>
-    <t>711958535044</t>
-  </si>
-  <si>
-    <t>293682050877</t>
-  </si>
-  <si>
-    <t>385727173283</t>
-  </si>
-  <si>
-    <t>972917106612</t>
-  </si>
-  <si>
-    <t>169815377220</t>
-  </si>
-  <si>
-    <t>445377706297</t>
-  </si>
-  <si>
-    <t>743179554932</t>
-  </si>
-  <si>
-    <t>589450239332</t>
-  </si>
-  <si>
-    <t>414106084752</t>
-  </si>
-  <si>
-    <t>135804079925</t>
-  </si>
-  <si>
-    <t>501329189167</t>
-  </si>
-  <si>
-    <t>664157725135</t>
-  </si>
-  <si>
-    <t>542872040674</t>
-  </si>
-  <si>
-    <t>678618509371</t>
-  </si>
-  <si>
-    <t>436960668069</t>
-  </si>
-  <si>
-    <t>261109633276</t>
-  </si>
-  <si>
-    <t>187776766660</t>
-  </si>
-  <si>
-    <t>071999857175</t>
-  </si>
-  <si>
-    <t>599899901766</t>
-  </si>
-  <si>
-    <t>388045738687</t>
-  </si>
-  <si>
-    <t>993631033641</t>
-  </si>
-  <si>
-    <t>173649067761</t>
-  </si>
-  <si>
-    <t>196813147159</t>
-  </si>
-  <si>
-    <t>523136102904</t>
-  </si>
-  <si>
-    <t>001802400321</t>
-  </si>
-  <si>
-    <t>735507287778</t>
-  </si>
-  <si>
-    <t>861302681843</t>
-  </si>
-  <si>
-    <t>111245825202</t>
-  </si>
-  <si>
-    <t>121258139683</t>
-  </si>
-  <si>
-    <t>408633120841</t>
-  </si>
-  <si>
-    <t>780596239853</t>
-  </si>
-  <si>
-    <t>484862102992</t>
+    <t>771109346654</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>047062340964</t>
+  </si>
+  <si>
+    <t>709829563003</t>
+  </si>
+  <si>
+    <t>517488247868</t>
+  </si>
+  <si>
+    <t>361568447951</t>
+  </si>
+  <si>
+    <t>681023085848</t>
+  </si>
+  <si>
+    <t>273574235129</t>
+  </si>
+  <si>
+    <t>694765512512</t>
+  </si>
+  <si>
+    <t>976041914129</t>
+  </si>
+  <si>
+    <t>831673309084</t>
+  </si>
+  <si>
+    <t>846609966434</t>
+  </si>
+  <si>
+    <t>657231661264</t>
+  </si>
+  <si>
+    <t>130769731732</t>
+  </si>
+  <si>
+    <t>932241637972</t>
+  </si>
+  <si>
+    <t>688170987119</t>
+  </si>
+  <si>
+    <t>498208930975</t>
+  </si>
+  <si>
+    <t>296038545353</t>
+  </si>
+  <si>
+    <t>137759278898</t>
+  </si>
+  <si>
+    <t>283371889247</t>
+  </si>
+  <si>
+    <t>978309728205</t>
+  </si>
+  <si>
+    <t>449837529183</t>
+  </si>
+  <si>
+    <t>851792790477</t>
+  </si>
+  <si>
+    <t>330196736089</t>
+  </si>
+  <si>
+    <t>197273833775</t>
+  </si>
+  <si>
+    <t>583282828139</t>
+  </si>
+  <si>
+    <t>427424416439</t>
+  </si>
+  <si>
+    <t>219113815142</t>
+  </si>
+  <si>
+    <t>508885047797</t>
+  </si>
+  <si>
+    <t>370632604742</t>
+  </si>
+  <si>
+    <t>750177918160</t>
+  </si>
+  <si>
+    <t>177637202648</t>
+  </si>
+  <si>
+    <t>263026192562</t>
+  </si>
+  <si>
+    <t>244215122832</t>
+  </si>
+  <si>
+    <t>562572202921</t>
+  </si>
+  <si>
+    <t>773942246306</t>
+  </si>
+  <si>
+    <t>480342044039</t>
+  </si>
+  <si>
+    <t>768470196522</t>
+  </si>
+  <si>
+    <t>082114771588</t>
+  </si>
+  <si>
+    <t>669785157886</t>
+  </si>
+  <si>
+    <t>762669237281</t>
+  </si>
+  <si>
+    <t>343269942716</t>
+  </si>
+  <si>
+    <t>744183728315</t>
+  </si>
+  <si>
+    <t>548662557850</t>
+  </si>
+  <si>
+    <t>667676706279</t>
+  </si>
+  <si>
+    <t>286522558999</t>
+  </si>
+  <si>
+    <t>371273060935</t>
+  </si>
+  <si>
+    <t>109658068445</t>
+  </si>
+  <si>
+    <t>365795205193</t>
+  </si>
+  <si>
+    <t>588626049843</t>
+  </si>
+  <si>
+    <t>910788801776</t>
+  </si>
+  <si>
+    <t>538689162719</t>
+  </si>
+  <si>
+    <t>532266630388</t>
+  </si>
+  <si>
+    <t>010739356095</t>
+  </si>
+  <si>
+    <t>551199902204</t>
+  </si>
+  <si>
+    <t>905729164157</t>
+  </si>
+  <si>
+    <t>035126042386</t>
+  </si>
+  <si>
+    <t>891768870278</t>
+  </si>
+  <si>
+    <t>322922950636</t>
+  </si>
+  <si>
+    <t>669371749711</t>
+  </si>
+  <si>
+    <t>033104753896</t>
+  </si>
+  <si>
+    <t>585038259959</t>
+  </si>
+  <si>
+    <t>138572308189</t>
+  </si>
+  <si>
+    <t>132136025623</t>
+  </si>
+  <si>
+    <t>747220556809</t>
+  </si>
+  <si>
+    <t>242825615966</t>
+  </si>
+  <si>
+    <t>022249279686</t>
+  </si>
+  <si>
+    <t>507930177263</t>
+  </si>
+  <si>
+    <t>220710666240</t>
+  </si>
+  <si>
+    <t>999473572513</t>
+  </si>
+  <si>
+    <t>985323088623</t>
+  </si>
+  <si>
+    <t>039989169718</t>
+  </si>
+  <si>
+    <t>301975972356</t>
+  </si>
+  <si>
+    <t>866476347356</t>
+  </si>
+  <si>
+    <t>569815071872</t>
+  </si>
+  <si>
+    <t>079314235814</t>
+  </si>
+  <si>
+    <t>769630210473</t>
+  </si>
+  <si>
+    <t>102126619819</t>
+  </si>
+  <si>
+    <t>206391497577</t>
+  </si>
+  <si>
+    <t>713073757909</t>
+  </si>
+  <si>
+    <t>624752401806</t>
+  </si>
+  <si>
+    <t>173426798962</t>
+  </si>
+  <si>
+    <t>875196032061</t>
+  </si>
+  <si>
+    <t>938805144194</t>
+  </si>
+  <si>
+    <t>211779833947</t>
+  </si>
+  <si>
+    <t>787743417755</t>
+  </si>
+  <si>
+    <t>887043546763</t>
+  </si>
+  <si>
+    <t>467634692783</t>
+  </si>
+  <si>
+    <t>388121593357</t>
+  </si>
+  <si>
+    <t>532933056696</t>
+  </si>
+  <si>
+    <t>071596220608</t>
+  </si>
+  <si>
+    <t>695891177546</t>
+  </si>
+  <si>
+    <t>458513597097</t>
+  </si>
+  <si>
+    <t>103611424352</t>
+  </si>
+  <si>
+    <t>002911755731</t>
+  </si>
+  <si>
+    <t>448490069403</t>
+  </si>
+  <si>
+    <t>545579031819</t>
+  </si>
+  <si>
+    <t>055624265777</t>
+  </si>
+  <si>
+    <t>442971369897</t>
+  </si>
+  <si>
+    <t>534984673820</t>
+  </si>
+  <si>
+    <t>352905491577</t>
+  </si>
+  <si>
+    <t>411796390678</t>
+  </si>
+  <si>
+    <t>618278141008</t>
+  </si>
+  <si>
+    <t>314724845352</t>
+  </si>
+  <si>
+    <t>718177404174</t>
+  </si>
+  <si>
+    <t>625389230904</t>
+  </si>
+  <si>
+    <t>471226934431</t>
+  </si>
+  <si>
+    <t>610819296616</t>
+  </si>
+  <si>
+    <t>049562278942</t>
+  </si>
+  <si>
+    <t>377163630337</t>
+  </si>
+  <si>
+    <t>014362705475</t>
+  </si>
+  <si>
+    <t>066401855403</t>
+  </si>
+  <si>
+    <t>668376925793</t>
+  </si>
+  <si>
+    <t>018068726120</t>
+  </si>
+  <si>
+    <t>391320421594</t>
+  </si>
+  <si>
+    <t>111395919758</t>
+  </si>
+  <si>
+    <t>684262849752</t>
+  </si>
+  <si>
+    <t>395144953957</t>
+  </si>
+  <si>
+    <t>882393834267</t>
+  </si>
+  <si>
+    <t>576975441161</t>
+  </si>
+  <si>
+    <t>842925963022</t>
+  </si>
+  <si>
+    <t>148112057326</t>
+  </si>
+  <si>
+    <t>086628922998</t>
+  </si>
+  <si>
+    <t>414221895844</t>
+  </si>
+  <si>
+    <t>893557870946</t>
+  </si>
+  <si>
+    <t>780356585704</t>
+  </si>
+  <si>
+    <t>214546266190</t>
+  </si>
+  <si>
+    <t>344870015934</t>
+  </si>
+  <si>
+    <t>586430520408</t>
+  </si>
+  <si>
+    <t>205816896243</t>
+  </si>
+  <si>
+    <t>475198143279</t>
+  </si>
+  <si>
+    <t>347194231460</t>
+  </si>
+  <si>
+    <t>755310240589</t>
+  </si>
+  <si>
+    <t>840096266600</t>
+  </si>
+  <si>
+    <t>979121764975</t>
+  </si>
+  <si>
+    <t>565446424170</t>
+  </si>
+  <si>
+    <t>177645858411</t>
+  </si>
+  <si>
+    <t>622518995300</t>
+  </si>
+  <si>
+    <t>766297268585</t>
+  </si>
+  <si>
+    <t>438763789796</t>
+  </si>
+  <si>
+    <t>842922094527</t>
+  </si>
+  <si>
+    <t>883763402711</t>
+  </si>
+  <si>
+    <t>805198244102</t>
+  </si>
+  <si>
+    <t>074179388910</t>
+  </si>
+  <si>
+    <t>794812693734</t>
+  </si>
+  <si>
+    <t>073578540970</t>
+  </si>
+  <si>
+    <t>530979268856</t>
+  </si>
+  <si>
+    <t>583512342467</t>
+  </si>
+  <si>
+    <t>908480305464</t>
+  </si>
+  <si>
+    <t>224996662879</t>
+  </si>
+  <si>
+    <t>153665613864</t>
+  </si>
+  <si>
+    <t>468068956347</t>
+  </si>
+  <si>
+    <t>264251752158</t>
+  </si>
+  <si>
+    <t>376969861545</t>
+  </si>
+  <si>
+    <t>573246442746</t>
+  </si>
+  <si>
+    <t>222182706652</t>
+  </si>
+  <si>
+    <t>458413339484</t>
+  </si>
+  <si>
+    <t>807647622983</t>
+  </si>
+  <si>
+    <t>556827433388</t>
+  </si>
+  <si>
+    <t>224820286583</t>
+  </si>
+  <si>
+    <t>893749545542</t>
+  </si>
+  <si>
+    <t>648012963295</t>
+  </si>
+  <si>
+    <t>072069893242</t>
+  </si>
+  <si>
+    <t>577314833190</t>
+  </si>
+  <si>
+    <t>086417806358</t>
+  </si>
+  <si>
+    <t>205138093469</t>
+  </si>
+  <si>
+    <t>828283964497</t>
+  </si>
+  <si>
+    <t>965547713813</t>
+  </si>
+  <si>
+    <t>757853329667</t>
+  </si>
+  <si>
+    <t>176828539855</t>
+  </si>
+  <si>
+    <t>947258042362</t>
+  </si>
+  <si>
+    <t>308180222871</t>
+  </si>
+  <si>
+    <t>207208225165</t>
+  </si>
+  <si>
+    <t>361372553283</t>
+  </si>
+  <si>
+    <t>395947508225</t>
+  </si>
+  <si>
+    <t>016024945571</t>
+  </si>
+  <si>
+    <t>810316566805</t>
+  </si>
+  <si>
+    <t>993459659087</t>
+  </si>
+  <si>
+    <t>888308514804</t>
+  </si>
+  <si>
+    <t>645385349857</t>
+  </si>
+  <si>
+    <t>514050949185</t>
+  </si>
+  <si>
+    <t>520914342183</t>
+  </si>
+  <si>
+    <t>462978683260</t>
+  </si>
+  <si>
+    <t>795511893665</t>
+  </si>
+  <si>
+    <t>323484812923</t>
+  </si>
+  <si>
+    <t>304080533329</t>
+  </si>
+  <si>
+    <t>716978633511</t>
+  </si>
+  <si>
+    <t>008373051171</t>
+  </si>
+  <si>
+    <t>538421886929</t>
+  </si>
+  <si>
+    <t>633142456258</t>
+  </si>
+  <si>
+    <t>754474682416</t>
+  </si>
+  <si>
+    <t>586471090994</t>
+  </si>
+  <si>
+    <t>462504351135</t>
+  </si>
+  <si>
+    <t>971588820033</t>
+  </si>
+  <si>
+    <t>225149449516</t>
+  </si>
+  <si>
+    <t>050756433286</t>
+  </si>
+  <si>
+    <t>541488198632</t>
+  </si>
+  <si>
+    <t>356636936104</t>
+  </si>
+  <si>
+    <t>012246945771</t>
+  </si>
+  <si>
+    <t>166260299619</t>
+  </si>
+  <si>
+    <t>370440607362</t>
+  </si>
+  <si>
+    <t>329160597428</t>
+  </si>
+  <si>
+    <t>544182923306</t>
+  </si>
+  <si>
+    <t>120217614527</t>
+  </si>
+  <si>
+    <t>789552441682</t>
+  </si>
+  <si>
+    <t>822779229626</t>
+  </si>
+  <si>
+    <t>424971793240</t>
+  </si>
+  <si>
+    <t>721032447927</t>
+  </si>
+  <si>
+    <t>223613861536</t>
+  </si>
+  <si>
+    <t>493866014152</t>
+  </si>
+  <si>
+    <t>552317507563</t>
+  </si>
+  <si>
+    <t>501325420537</t>
+  </si>
+  <si>
+    <t>501545163042</t>
+  </si>
+  <si>
+    <t>775696629218</t>
+  </si>
+  <si>
+    <t>024734031157</t>
+  </si>
+  <si>
+    <t>409373587477</t>
+  </si>
+  <si>
+    <t>529462801173</t>
+  </si>
+  <si>
+    <t>639006959028</t>
+  </si>
+  <si>
+    <t>101152813392</t>
+  </si>
+  <si>
+    <t>664803296616</t>
+  </si>
+  <si>
+    <t>213690975475</t>
+  </si>
+  <si>
+    <t>232962687874</t>
+  </si>
+  <si>
+    <t>134409883511</t>
+  </si>
+  <si>
+    <t>262493492742</t>
+  </si>
+  <si>
+    <t>555635782712</t>
+  </si>
+  <si>
+    <t>153665810772</t>
+  </si>
+  <si>
+    <t>670333767695</t>
+  </si>
+  <si>
+    <t>545889078805</t>
+  </si>
+  <si>
+    <t>109041863122</t>
+  </si>
+  <si>
+    <t>463320731168</t>
+  </si>
+  <si>
+    <t>573305553956</t>
+  </si>
+  <si>
+    <t>979483313337</t>
+  </si>
+  <si>
+    <t>704601042073</t>
+  </si>
+  <si>
+    <t>394911173920</t>
+  </si>
+  <si>
+    <t>104381814673</t>
+  </si>
+  <si>
+    <t>869890811490</t>
+  </si>
+  <si>
+    <t>641671380746</t>
+  </si>
+  <si>
+    <t>841882896172</t>
+  </si>
+  <si>
+    <t>382100012419</t>
+  </si>
+  <si>
+    <t>651028896335</t>
+  </si>
+  <si>
+    <t>118755029658</t>
+  </si>
+  <si>
+    <t>745135933374</t>
+  </si>
+  <si>
+    <t>721802974156</t>
+  </si>
+  <si>
+    <t>453443932628</t>
+  </si>
+  <si>
+    <t>739431217355</t>
+  </si>
+  <si>
+    <t>917220768039</t>
+  </si>
+  <si>
+    <t>529393542660</t>
+  </si>
+  <si>
+    <t>934131122217</t>
+  </si>
+  <si>
+    <t>112274830637</t>
+  </si>
+  <si>
+    <t>675417166038</t>
+  </si>
+  <si>
+    <t>140714323899</t>
+  </si>
+  <si>
+    <t>380361986744</t>
+  </si>
+  <si>
+    <t>075945246898</t>
+  </si>
+  <si>
+    <t>204008805630</t>
+  </si>
+  <si>
+    <t>110836645239</t>
+  </si>
+  <si>
+    <t>069714341841</t>
+  </si>
+  <si>
+    <t>024591922173</t>
+  </si>
+  <si>
+    <t>048780402908</t>
+  </si>
+  <si>
+    <t>696180690887</t>
+  </si>
+  <si>
+    <t>427491718794</t>
+  </si>
+  <si>
+    <t>726439381493</t>
+  </si>
+  <si>
+    <t>483814932378</t>
+  </si>
+  <si>
+    <t>768336942362</t>
+  </si>
+  <si>
+    <t>951197252706</t>
+  </si>
+  <si>
+    <t>133772137512</t>
+  </si>
+  <si>
+    <t>386038380838</t>
+  </si>
+  <si>
+    <t>838996567115</t>
+  </si>
+  <si>
+    <t>551892195997</t>
+  </si>
+  <si>
+    <t>249179842900</t>
+  </si>
+  <si>
+    <t>027391928141</t>
+  </si>
+  <si>
+    <t>406968116939</t>
+  </si>
+  <si>
+    <t>471533703341</t>
+  </si>
+  <si>
+    <t>923433783591</t>
+  </si>
+  <si>
+    <t>283560412929</t>
+  </si>
+  <si>
+    <t>908573807073</t>
+  </si>
+  <si>
+    <t>859963928633</t>
+  </si>
+  <si>
+    <t>518122777036</t>
+  </si>
+  <si>
+    <t>961197516448</t>
+  </si>
+  <si>
+    <t>919720910204</t>
+  </si>
+  <si>
+    <t>378039802289</t>
+  </si>
+  <si>
+    <t>358663360173</t>
+  </si>
+  <si>
+    <t>903437275696</t>
+  </si>
+  <si>
+    <t>996070368608</t>
+  </si>
+  <si>
+    <t>526753709090</t>
+  </si>
+  <si>
+    <t>982078120878</t>
+  </si>
+  <si>
+    <t>871479838966</t>
+  </si>
+  <si>
+    <t>290954832512</t>
+  </si>
+  <si>
+    <t>434619178946</t>
+  </si>
+  <si>
+    <t>282715935261</t>
+  </si>
+  <si>
+    <t>973864436928</t>
+  </si>
+  <si>
+    <t>823119655299</t>
+  </si>
+  <si>
+    <t>298854708170</t>
+  </si>
+  <si>
+    <t>772932654316</t>
+  </si>
+  <si>
+    <t>799185054776</t>
+  </si>
+  <si>
+    <t>450400902531</t>
+  </si>
+  <si>
+    <t>767250238535</t>
+  </si>
+  <si>
+    <t>970305257941</t>
+  </si>
+  <si>
+    <t>171890551062</t>
+  </si>
+  <si>
+    <t>023878737803</t>
+  </si>
+  <si>
+    <t>830884866322</t>
+  </si>
+  <si>
+    <t>777283172734</t>
+  </si>
+  <si>
+    <t>716144541258</t>
+  </si>
+  <si>
+    <t>324687282490</t>
+  </si>
+  <si>
+    <t>959351656896</t>
+  </si>
+  <si>
+    <t>796861809871</t>
+  </si>
+  <si>
+    <t>024785320950</t>
+  </si>
+  <si>
+    <t>541427367821</t>
+  </si>
+  <si>
+    <t>689683490964</t>
+  </si>
+  <si>
+    <t>405881167038</t>
+  </si>
+  <si>
+    <t>820046622330</t>
+  </si>
+  <si>
+    <t>715842920194</t>
+  </si>
+  <si>
+    <t>959700850054</t>
+  </si>
+  <si>
+    <t>269579335076</t>
+  </si>
+  <si>
+    <t>453832860986</t>
+  </si>
+  <si>
+    <t>990287079210</t>
+  </si>
+  <si>
+    <t>212066248788</t>
+  </si>
+  <si>
+    <t>625727119233</t>
+  </si>
+  <si>
+    <t>015499730079</t>
+  </si>
+  <si>
+    <t>503253938318</t>
+  </si>
+  <si>
+    <t>192956783525</t>
+  </si>
+  <si>
+    <t>074188765012</t>
+  </si>
+  <si>
+    <t>041394838931</t>
+  </si>
+  <si>
+    <t>675388955305</t>
+  </si>
+  <si>
+    <t>479937272316</t>
+  </si>
+  <si>
+    <t>116725559845</t>
+  </si>
+  <si>
+    <t>400835298595</t>
+  </si>
+  <si>
+    <t>782095905433</t>
+  </si>
+  <si>
+    <t>505104689002</t>
+  </si>
+  <si>
+    <t>273550182077</t>
+  </si>
+  <si>
+    <t>103538937597</t>
+  </si>
+  <si>
+    <t>308630384041</t>
+  </si>
+  <si>
+    <t>983020652916</t>
+  </si>
+  <si>
+    <t>916077039554</t>
+  </si>
+  <si>
+    <t>478471059768</t>
+  </si>
+  <si>
+    <t>785313146402</t>
+  </si>
+  <si>
+    <t>257309165607</t>
+  </si>
+  <si>
+    <t>020900966643</t>
+  </si>
+  <si>
+    <t>886598120007</t>
+  </si>
+  <si>
+    <t>101577373058</t>
+  </si>
+  <si>
+    <t>467924075908</t>
+  </si>
+  <si>
+    <t>299130158240</t>
+  </si>
+  <si>
+    <t>180003995340</t>
+  </si>
+  <si>
+    <t>242019134686</t>
+  </si>
+  <si>
+    <t>830079334942</t>
+  </si>
+  <si>
+    <t>726243074403</t>
+  </si>
+  <si>
+    <t>607296214676</t>
+  </si>
+  <si>
+    <t>519012858486</t>
+  </si>
+  <si>
+    <t>742833967758</t>
+  </si>
+  <si>
+    <t>117006183554</t>
+  </si>
+  <si>
+    <t>824812157093</t>
+  </si>
+  <si>
+    <t>874547449888</t>
+  </si>
+  <si>
+    <t>937558611793</t>
+  </si>
+  <si>
+    <t>638214387441</t>
+  </si>
+  <si>
+    <t>065824901804</t>
+  </si>
+  <si>
+    <t>853924912587</t>
+  </si>
+  <si>
+    <t>710448901504</t>
+  </si>
+  <si>
+    <t>085865680372</t>
+  </si>
+  <si>
+    <t>430624365918</t>
+  </si>
+  <si>
+    <t>196139246682</t>
+  </si>
+  <si>
+    <t>778690655768</t>
+  </si>
+  <si>
+    <t>002633204590</t>
+  </si>
+  <si>
+    <t>315432272955</t>
+  </si>
+  <si>
+    <t>980072962578</t>
+  </si>
+  <si>
+    <t>784687396747</t>
+  </si>
+  <si>
+    <t>875768540892</t>
+  </si>
+  <si>
+    <t>554008422764</t>
+  </si>
+  <si>
+    <t>470885235739</t>
+  </si>
+  <si>
+    <t>434117543917</t>
+  </si>
+  <si>
+    <t>632300133687</t>
+  </si>
+  <si>
+    <t>965955272718</t>
+  </si>
+  <si>
+    <t>307362064901</t>
+  </si>
+  <si>
+    <t>095944037056</t>
+  </si>
+  <si>
+    <t>919368530794</t>
+  </si>
+  <si>
+    <t>783192687604</t>
+  </si>
+  <si>
+    <t>668050216046</t>
+  </si>
+  <si>
+    <t>210618761572</t>
+  </si>
+  <si>
+    <t>230788418877</t>
+  </si>
+  <si>
+    <t>779500626277</t>
+  </si>
+  <si>
+    <t>937368202142</t>
+  </si>
+  <si>
+    <t>914985143632</t>
+  </si>
+  <si>
+    <t>919159520130</t>
+  </si>
+  <si>
+    <t>644499417937</t>
+  </si>
+  <si>
+    <t>861546575728</t>
+  </si>
+  <si>
+    <t>185895981871</t>
+  </si>
+  <si>
+    <t>211172337837</t>
+  </si>
+  <si>
+    <t>357160076631</t>
+  </si>
+  <si>
+    <t>734177189075</t>
+  </si>
+  <si>
+    <t>218899139642</t>
+  </si>
+  <si>
+    <t>655535525812</t>
+  </si>
+  <si>
+    <t>223250302743</t>
+  </si>
+  <si>
+    <t>403910047352</t>
+  </si>
+  <si>
+    <t>034787302234</t>
+  </si>
+  <si>
+    <t>138785802503</t>
+  </si>
+  <si>
+    <t>761341304423</t>
+  </si>
+  <si>
+    <t>874270508464</t>
+  </si>
+  <si>
+    <t>718001144954</t>
+  </si>
+  <si>
+    <t>948851266198</t>
+  </si>
+  <si>
+    <t>677452040956</t>
+  </si>
+  <si>
+    <t>239847431255</t>
+  </si>
+  <si>
+    <t>212443588790</t>
+  </si>
+  <si>
+    <t>730811696284</t>
+  </si>
+  <si>
+    <t>516820923495</t>
+  </si>
+  <si>
+    <t>762635970678</t>
+  </si>
+  <si>
+    <t>485448793781</t>
+  </si>
+  <si>
+    <t>566368039073</t>
+  </si>
+  <si>
+    <t>997046174918</t>
+  </si>
+  <si>
+    <t>159812780358</t>
+  </si>
+  <si>
+    <t>717499914408</t>
+  </si>
+  <si>
+    <t>030830575781</t>
+  </si>
+  <si>
+    <t>527419865278</t>
+  </si>
+  <si>
+    <t>446010776336</t>
+  </si>
+  <si>
+    <t>959627478463</t>
+  </si>
+  <si>
+    <t>376034474252</t>
+  </si>
+  <si>
+    <t>745244044249</t>
+  </si>
+  <si>
+    <t>493326574013</t>
+  </si>
+  <si>
+    <t>774031204655</t>
+  </si>
+  <si>
+    <t>753367551705</t>
+  </si>
+  <si>
+    <t>082003081765</t>
+  </si>
+  <si>
+    <t>000540565519</t>
+  </si>
+  <si>
+    <t>701959047076</t>
+  </si>
+  <si>
+    <t>238186146004</t>
+  </si>
+  <si>
+    <t>048271254416</t>
+  </si>
+  <si>
+    <t>932535517283</t>
+  </si>
+  <si>
+    <t>187073042373</t>
+  </si>
+  <si>
+    <t>224246141823</t>
+  </si>
+  <si>
+    <t>174345247858</t>
+  </si>
+  <si>
+    <t>951941268190</t>
+  </si>
+  <si>
+    <t>709994472241</t>
+  </si>
+  <si>
+    <t>283694699644</t>
+  </si>
+  <si>
+    <t>451370354615</t>
+  </si>
+  <si>
+    <t>826430721202</t>
+  </si>
+  <si>
+    <t>106692368250</t>
+  </si>
+  <si>
+    <t>629220058656</t>
+  </si>
+  <si>
+    <t>023048557327</t>
+  </si>
+  <si>
+    <t>285214509606</t>
+  </si>
+  <si>
+    <t>763466761813</t>
+  </si>
+  <si>
+    <t>849831028001</t>
+  </si>
+  <si>
+    <t>310363013774</t>
+  </si>
+  <si>
+    <t>642955738153</t>
+  </si>
+  <si>
+    <t>870919746306</t>
+  </si>
+  <si>
+    <t>229783733936</t>
+  </si>
+  <si>
+    <t>777249035092</t>
+  </si>
+  <si>
+    <t>298405668855</t>
+  </si>
+  <si>
+    <t>050404896261</t>
+  </si>
+  <si>
+    <t>021098284426</t>
+  </si>
+  <si>
+    <t>624453270843</t>
+  </si>
+  <si>
+    <t>408432552091</t>
+  </si>
+  <si>
+    <t>623571682253</t>
+  </si>
+  <si>
+    <t>588564670683</t>
+  </si>
+  <si>
+    <t>367914268610</t>
+  </si>
+  <si>
+    <t>394661225616</t>
+  </si>
+  <si>
+    <t>339936928525</t>
+  </si>
+  <si>
+    <t>176351849436</t>
+  </si>
+  <si>
+    <t>814335512992</t>
+  </si>
+  <si>
+    <t>269944609216</t>
+  </si>
+  <si>
+    <t>595340928263</t>
+  </si>
+  <si>
+    <t>407956078475</t>
+  </si>
+  <si>
+    <t>965662540819</t>
+  </si>
+  <si>
+    <t>506923881084</t>
+  </si>
+  <si>
+    <t>692669195668</t>
+  </si>
+  <si>
+    <t>192505444521</t>
+  </si>
+  <si>
+    <t>083389688435</t>
+  </si>
+  <si>
+    <t>729897642853</t>
+  </si>
+  <si>
+    <t>126293695456</t>
+  </si>
+  <si>
+    <t>708198545420</t>
+  </si>
+  <si>
+    <t>377032838777</t>
+  </si>
+  <si>
+    <t>131302290997</t>
+  </si>
+  <si>
+    <t>415671794242</t>
+  </si>
+  <si>
+    <t>139227201548</t>
+  </si>
+  <si>
+    <t>584031426043</t>
+  </si>
+  <si>
+    <t>797640279123</t>
+  </si>
+  <si>
+    <t>664775283122</t>
+  </si>
+  <si>
+    <t>211226366363</t>
+  </si>
+  <si>
+    <t>849672851635</t>
+  </si>
+  <si>
+    <t>128510465511</t>
+  </si>
+  <si>
+    <t>025417552532</t>
+  </si>
+  <si>
+    <t>402630628418</t>
+  </si>
+  <si>
+    <t>209184849039</t>
+  </si>
+  <si>
+    <t>536714565874</t>
+  </si>
+  <si>
+    <t>177795089397</t>
+  </si>
+  <si>
+    <t>370743489613</t>
+  </si>
+  <si>
+    <t>823894401505</t>
+  </si>
+  <si>
+    <t>733930188458</t>
+  </si>
+  <si>
+    <t>529880974761</t>
+  </si>
+  <si>
+    <t>795489432307</t>
+  </si>
+  <si>
+    <t>422526534171</t>
+  </si>
+  <si>
+    <t>605714236976</t>
+  </si>
+  <si>
+    <t>133651232484</t>
+  </si>
+  <si>
+    <t>710509660098</t>
+  </si>
+  <si>
+    <t>574750730984</t>
+  </si>
+  <si>
+    <t>873793163833</t>
+  </si>
+  <si>
+    <t>885877362545</t>
+  </si>
+  <si>
+    <t>303957530393</t>
+  </si>
+  <si>
+    <t>638704456651</t>
+  </si>
+  <si>
+    <t>612263351355</t>
+  </si>
+  <si>
+    <t>868154537226</t>
+  </si>
+  <si>
+    <t>319346610908</t>
+  </si>
+  <si>
+    <t>624827307809</t>
+  </si>
+  <si>
+    <t>702871424696</t>
+  </si>
+  <si>
+    <t>456352952605</t>
+  </si>
+  <si>
+    <t>893835228850</t>
   </si>
 </sst>
 </file>
